--- a/Labo opgave 1/grafieken benchmarks.xlsx
+++ b/Labo opgave 1/grafieken benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="add_cuda_blocksize" sheetId="1" r:id="rId1"/>
@@ -1013,11 +1013,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-54153456"/>
-        <c:axId val="-54155776"/>
+        <c:axId val="-1216759872"/>
+        <c:axId val="-1216758512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-54153456"/>
+        <c:axId val="-1216759872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,8 +1043,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1067,12 +1068,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-54155776"/>
+        <c:crossAx val="-1216758512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-54155776"/>
+        <c:axId val="-1216758512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1129,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-54153456"/>
+        <c:crossAx val="-1216759872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2069,11 +2070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-52446000"/>
-        <c:axId val="-115910208"/>
+        <c:axId val="-1199097008"/>
+        <c:axId val="-1199094256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-52446000"/>
+        <c:axId val="-1199097008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,8 +2100,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2123,12 +2125,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-115910208"/>
+        <c:crossAx val="-1199094256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-115910208"/>
+        <c:axId val="-1199094256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2185,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52446000"/>
+        <c:crossAx val="-1199097008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3114,11 +3116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-94682032"/>
-        <c:axId val="-50628864"/>
+        <c:axId val="-1199073776"/>
+        <c:axId val="-1199071024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-94682032"/>
+        <c:axId val="-1199073776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,8 +3147,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3169,12 +3172,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-50628864"/>
+        <c:crossAx val="-1199071024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-50628864"/>
+        <c:axId val="-1199071024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3232,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-94682032"/>
+        <c:crossAx val="-1199073776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4153,11 +4156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-58573920"/>
-        <c:axId val="-57863760"/>
+        <c:axId val="-1216746752"/>
+        <c:axId val="-1216744000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-58573920"/>
+        <c:axId val="-1216746752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,8 +4186,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4207,12 +4211,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-57863760"/>
+        <c:crossAx val="-1216744000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-57863760"/>
+        <c:axId val="-1216744000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4272,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58573920"/>
+        <c:crossAx val="-1216746752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7022,8 +7026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="BB57" sqref="BB57"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
